--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,72 +46,72 @@
     <t>die</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
@@ -124,75 +124,93 @@
     <t>cut</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>empty</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
@@ -202,46 +220,52 @@
     <t>gt</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>well</t>
+    <t>safety</t>
   </si>
   <si>
     <t>hope</t>
@@ -250,9 +274,6 @@
     <t>share</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -262,13 +283,19 @@
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -626,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -745,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9459459459459459</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.88</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8527397260273972</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9164490861618799</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.9216710182767625</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,16 +1093,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -1113,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8875</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.775</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.8984375</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.8962264150943396</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.8936170212765957</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7419354838709677</v>
+        <v>0.7195767195767195</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.8928571428571429</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,16 +1393,16 @@
         <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.88125</v>
+        <v>0.875</v>
       </c>
       <c r="L16">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6976744186046512</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C17">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.8732394366197183</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6949152542372882</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K18">
         <v>0.8611111111111112</v>
@@ -1495,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6878306878306878</v>
+        <v>0.7073643410852714</v>
       </c>
       <c r="C19">
-        <v>130</v>
+        <v>365</v>
       </c>
       <c r="D19">
-        <v>130</v>
+        <v>365</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.8536585365853658</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6862745098039216</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.8448275862068966</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.625</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K21">
         <v>0.8214285714285714</v>
@@ -1645,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6174496644295302</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C22">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K22">
         <v>0.8095238095238095</v>
@@ -1695,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K23">
         <v>0.8</v>
@@ -1745,7 +1772,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5897435897435898</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1763,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,16 +1843,16 @@
         <v>149</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5405405405405406</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.7714285714285715</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1887,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1916,16 +1943,16 @@
         <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.7692307692307693</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1937,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1966,16 +1993,16 @@
         <v>36</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.7617647058823529</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1987,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2016,16 +2043,16 @@
         <v>29</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2037,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2045,13 +2072,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4727272727272727</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2063,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.7220338983050848</v>
+        <v>0.74</v>
       </c>
       <c r="L30">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2087,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2095,49 +2122,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3253968253968254</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>51</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31">
+        <v>0.7220338983050848</v>
+      </c>
+      <c r="L31">
+        <v>213</v>
+      </c>
+      <c r="M31">
+        <v>213</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>82</v>
-      </c>
-      <c r="D31">
-        <v>82</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>170</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31">
-        <v>0.72</v>
-      </c>
-      <c r="L31">
-        <v>36</v>
-      </c>
-      <c r="M31">
-        <v>36</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2145,13 +2172,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3116883116883117</v>
+        <v>0.325</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2163,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K32">
         <v>0.7142857142857143</v>
@@ -2195,13 +2222,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1742627345844504</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D33">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2213,19 +2240,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>0.7112970711297071</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L33">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="M33">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2237,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2245,193 +2272,337 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006117192530585963</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>66</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34">
+        <v>0.7112970711297071</v>
+      </c>
+      <c r="L34">
+        <v>170</v>
+      </c>
+      <c r="M34">
+        <v>170</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.1957104557640751</v>
+      </c>
+      <c r="C35">
+        <v>73</v>
+      </c>
+      <c r="D35">
+        <v>73</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>300</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35">
+        <v>0.7078651685393258</v>
+      </c>
+      <c r="L35">
+        <v>63</v>
+      </c>
+      <c r="M35">
+        <v>63</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.07666666666666666</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>277</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L36">
         <v>19</v>
       </c>
-      <c r="D34">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>0.05</v>
-      </c>
-      <c r="F34">
-        <v>0.95</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>3087</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34">
-        <v>0.7078651685393258</v>
-      </c>
-      <c r="L34">
-        <v>63</v>
-      </c>
-      <c r="M34">
-        <v>63</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.01430976430976431</v>
+      </c>
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>0.08</v>
+      </c>
+      <c r="F37">
+        <v>0.92</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2342</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.008373590982286634</v>
+      </c>
+      <c r="C38">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L35">
+      <c r="D38">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>3079</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.005332715047530721</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>0.39</v>
+      </c>
+      <c r="F39">
+        <v>0.61</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>4290</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L39">
+        <v>34</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.003817560779586096</v>
+      </c>
+      <c r="C40">
         <v>19</v>
       </c>
-      <c r="M35">
-        <v>19</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L36">
-        <v>23</v>
-      </c>
-      <c r="M36">
-        <v>23</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37">
-        <v>0.6914893617021277</v>
-      </c>
-      <c r="L37">
-        <v>65</v>
-      </c>
-      <c r="M37">
-        <v>65</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38">
-        <v>0.6461538461538462</v>
-      </c>
-      <c r="L38">
-        <v>42</v>
-      </c>
-      <c r="M38">
-        <v>42</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L39">
-        <v>45</v>
-      </c>
-      <c r="M39">
-        <v>45</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4958</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K40">
-        <v>0.6078431372549019</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2443,21 +2614,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K41">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2469,21 +2640,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K42">
-        <v>0.547945205479452</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2495,21 +2666,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K43">
-        <v>0.5476190476190477</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2521,21 +2692,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K44">
-        <v>0.5087719298245614</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2547,21 +2718,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2573,21 +2744,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K46">
-        <v>0.34375</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2599,7 +2770,111 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>42</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47">
+        <v>0.40625</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49">
+        <v>0.03005008347245409</v>
+      </c>
+      <c r="L49">
+        <v>36</v>
+      </c>
+      <c r="M49">
+        <v>38</v>
+      </c>
+      <c r="N49">
+        <v>0.95</v>
+      </c>
+      <c r="O49">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50">
+        <v>0.003817560779586096</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>38</v>
+      </c>
+      <c r="N50">
+        <v>0.5</v>
+      </c>
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>4958</v>
       </c>
     </row>
   </sheetData>
